--- a/src/test/resources/ReportTestData.xlsx
+++ b/src/test/resources/ReportTestData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/582003e1f621abc3/Desktop/AutomateCRM/Automatesmb-9wood/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_F25DC773A252ABDACC104890F918537A5BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D096DBED-FB9A-4502-8F22-6EB50838404A}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="11_F25DC773A252ABDACC104890F918537A5BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CFD95C7-5FA9-4BD4-A8EA-1D18E413797B}"/>
   <bookViews>
-    <workbookView xWindow="5556" yWindow="7308" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
+    <sheet name="CalendarAsPrimary" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>ReportName</t>
   </si>
@@ -64,6 +65,9 @@
   </si>
   <si>
     <t>Chart_Report</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
@@ -130,6 +134,14 @@
 </file>
 
 <file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -399,7 +411,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -453,4 +465,59 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E520B417-2E85-41F9-9E24-C0761CF97561}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>